--- a/对称三进制逻辑.xlsx
+++ b/对称三进制逻辑.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>非 ¬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,14 +37,6 @@
   </si>
   <si>
     <t>异或 ⊕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合意 ⊠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调和 ⊞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -229,13 +221,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +337,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -269,7 +349,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -580,12 +678,12 @@
     <col min="7" max="10" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>8</v>
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="2">
         <v>-1</v>
@@ -596,7 +694,7 @@
       <c r="E1" s="3">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2"/>
@@ -610,10 +708,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A2" s="11"/>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -624,7 +722,7 @@
       <c r="E2" s="6">
         <v>-1</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="1">
         <v>-1</v>
       </c>
@@ -638,13 +736,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="1">
         <v>0</v>
       </c>
@@ -658,13 +756,13 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" thickBot="1">
+    <row r="4" spans="1:11" ht="14.25" thickBot="1">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="5">
         <v>1</v>
       </c>
@@ -678,8 +776,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
@@ -692,7 +790,7 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="2"/>
@@ -706,8 +804,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10"/>
       <c r="B6" s="1">
         <v>-1</v>
       </c>
@@ -720,7 +818,7 @@
       <c r="E6" s="4">
         <v>-1</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="1">
         <v>-1</v>
       </c>
@@ -734,8 +832,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10"/>
       <c r="B7" s="1">
         <v>0</v>
       </c>
@@ -748,7 +846,7 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>0</v>
       </c>
@@ -762,8 +860,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A8" s="11"/>
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -777,21 +875,21 @@
         <v>1</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2"/>
@@ -801,25 +899,18 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="9"/>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="10"/>
       <c r="B10" s="1">
         <v>-1</v>
       </c>
@@ -829,25 +920,18 @@
       <c r="D10" s="1">
         <v>-1</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9"/>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="10"/>
       <c r="B11" s="1">
         <v>0</v>
       </c>
@@ -857,25 +941,18 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A12" s="10"/>
+      <c r="E11" s="13">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A12" s="11"/>
       <c r="B12" s="5">
         <v>1</v>
       </c>
@@ -885,25 +962,18 @@
       <c r="D12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2"/>
@@ -913,25 +983,18 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="9"/>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="10"/>
       <c r="B14" s="1">
         <v>-1</v>
       </c>
@@ -941,25 +1004,18 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="9"/>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="10"/>
       <c r="B15" s="1">
         <v>0</v>
       </c>
@@ -969,25 +1025,18 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A16" s="10"/>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" thickBot="1">
+      <c r="A16" s="11"/>
       <c r="B16" s="5">
         <v>1</v>
       </c>
@@ -997,29 +1046,27 @@
       <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
+      <c r="E16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="6:10">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F16"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A16"/>

--- a/对称三进制逻辑.xlsx
+++ b/对称三进制逻辑.xlsx
@@ -14,37 +14,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>非 ¬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与 ∧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或 ∨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与非 ↑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或非 ↓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异或 ⊕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Out</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="15">
+  <si>
+    <t>与非 ↑ tNAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或非 ↓ tNOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异或 ⊕ tXOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同或 ⊙ tXNOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蕴含 → tIMPLIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非 ¬ tNOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与 ∧ tAND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或 ∨ tOR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -290,20 +318,82 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -312,63 +402,90 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,413 +781,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="5" width="2.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="2.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
+    <row r="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D1" s="2">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+    </row>
+    <row r="2" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="3"/>
+      <c r="B4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="17"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="3"/>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="15">
+        <v>0</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="20"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I1" s="2">
-        <v>0</v>
-      </c>
-      <c r="J1" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>-1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="10"/>
-      <c r="B6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>1</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10"/>
-      <c r="B10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9" t="s">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" thickBot="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14">
-        <v>-1</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3"/>
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="24">
+        <v>0</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3"/>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0</v>
+      </c>
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="1:20" ht="14.25" thickBot="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="26">
+        <v>0</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="6:10">
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
+  <mergeCells count="8">
+    <mergeCell ref="P3:P6"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="K7:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
